--- a/medicine/Hématologie/Dysérythropoïèse/Dysérythropoïèse.xlsx
+++ b/medicine/Hématologie/Dysérythropoïèse/Dysérythropoïèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dys%C3%A9rythropo%C3%AF%C3%A8se</t>
+          <t>Dysérythropoïèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Du grec dys- δυσ- « difficulté, anomalie », érythro- ἐρυθρός « rouge », poïèse ποίησις « action de faire », la dysérythropoïèse est une anomalie de la maturation des érythroblastes au niveau de la moelle osseuse, entraînant une insuffisance de production des érythrocytes ou globules rouges, et une anémie arégénérative.
 NB. Il existe une dysérythropoïse physiologique, correspondant à environ 15% de la production quotidienne d'hématie. Ils subissent une apoptose intramédullaire.
